--- a/sample/locationtest/Datas/Test/test.xlsx
+++ b/sample/locationtest/Datas/Test/test.xlsx
@@ -928,7 +928,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1194,7 +1194,7 @@
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1220,27 +1220,6 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:30">
       <c r="A2" s="3" t="s">

--- a/sample/locationtest/Datas/Test/test.xlsx
+++ b/sample/locationtest/Datas/Test/test.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+  <si>
+    <t>TestConfig</t>
+  </si>
   <si>
     <t>##var</t>
   </si>
@@ -1178,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1194,49 +1197,37 @@
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:30">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -1259,32 +1250,22 @@
       <c r="AC2"/>
       <c r="AD2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:30">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:30">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1309,23 +1290,29 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:30">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -1349,28 +1336,26 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:30">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:30">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1393,150 +1378,178 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6">
-        <v>10000</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:30">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>10004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12">
-        <v>10006</v>
-      </c>
-      <c r="C12" t="s">
+        <v>10005</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13">
-        <v>10007</v>
-      </c>
-      <c r="C13" s="7" t="s">
+        <v>10006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>48</v>
@@ -1552,13 +1565,13 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1566,11 +1579,27 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
+    <row r="16" spans="2:9">
+      <c r="B16">
+        <v>10009</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sample/locationtest/Datas/Test/test.xlsx
+++ b/sample/locationtest/Datas/Test/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>TestConfig</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>(list#sep=,),text</t>
+  </si>
+  <si>
+    <t>##extend</t>
   </si>
   <si>
     <t>##group</t>
@@ -931,7 +934,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1181,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1341,21 +1344,17 @@
         <v>18</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1378,28 +1377,26 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:30">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:30">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -1422,150 +1419,178 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7">
-        <v>10000</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:30">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12">
-        <v>10005</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>10004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13">
-        <v>10006</v>
-      </c>
-      <c r="C13" t="s">
+        <v>10005</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14">
-        <v>10007</v>
-      </c>
-      <c r="C14" s="7" t="s">
+        <v>10006</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>49</v>
@@ -1581,13 +1606,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1595,11 +1620,28 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>10009</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sample/locationtest/Datas/Test/test.xlsx
+++ b/sample/locationtest/Datas/Test/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\work\luban\luban_user\sample\locationtest\Datas\Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869431E4-3858-4A74-BAA9-D5038A70CB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>TestConfig</t>
   </si>
@@ -225,18 +231,24 @@
   <si>
     <t>中秋节礼包</t>
   </si>
+  <si>
+    <t>serverId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,137 +271,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,182 +313,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -606,321 +337,50 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -934,7 +394,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1178,34 +638,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="7" width="12.3796296296296" customWidth="1"/>
-    <col min="8" max="8" width="39.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="4" max="8" width="12.4140625" customWidth="1"/>
+    <col min="9" max="9" width="39.9140625" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:30">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1218,20 +678,22 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1252,24 +714,25 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:30">
+      <c r="AE2"/>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3"/>
+      <c r="J3" s="3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1290,8 +753,9 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:30">
+      <c r="AE3"/>
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1304,20 +768,22 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -1338,8 +804,9 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:30">
+      <c r="AE4"/>
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1350,12 +817,12 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
-      <c r="J5"/>
+      <c r="J5" s="5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -1376,8 +843,9 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:30">
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1386,18 +854,20 @@
       <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6"/>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -1418,8 +888,9 @@
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:30">
+      <c r="AE6"/>
+    </row>
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1432,16 +903,18 @@
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7"/>
+      <c r="J7" s="3"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -1462,8 +935,9 @@
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="AE7"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>10000</v>
       </c>
@@ -1473,23 +947,26 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10001</v>
       </c>
@@ -1499,19 +976,20 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:9">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10002</v>
       </c>
@@ -1521,13 +999,14 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:9">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10003</v>
       </c>
@@ -1537,13 +1016,14 @@
       <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:9">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10004</v>
       </c>
@@ -1553,29 +1033,31 @@
       <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:9">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10005</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:9">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>10006</v>
       </c>
@@ -1585,66 +1067,61 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>10007</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>10008</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>10009</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>